--- a/Tesztjegyzőkönyv.xlsx
+++ b/Tesztjegyzőkönyv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\Egyetem\2.félév\Programozás\Képnézegeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\imageviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15414F34-9A9E-4A82-A6C0-8A35D6D1A36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB22C5-51BF-4269-9D87-4468A9B6069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5892" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{E00E9AD7-C1DF-49FD-8324-30FE0B4F9530}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E00E9AD7-C1DF-49FD-8324-30FE0B4F9530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>Megfelelt</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>A file</t>
+  </si>
+  <si>
+    <t>Program bezárása</t>
+  </si>
+  <si>
+    <t>Program Tálcára tétele</t>
+  </si>
+  <si>
+    <t>Program kicsinyiítése  és nagyítása</t>
   </si>
 </sst>
 </file>
@@ -258,6 +267,20 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -346,20 +369,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -378,15 +387,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}" name="Table2" displayName="Table2" ref="A1:F21" totalsRowShown="0" headerRowDxfId="12" dataDxfId="5">
-  <autoFilter ref="A1:F21" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}" name="Table2" displayName="Table2" ref="A1:F24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:F24" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{04B4F1AE-9117-407D-AFE4-AA72720839EB}" name="Sorszám" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A132221A-7BCA-4D01-ACFD-CF5051E54E5F}" name="Teszt Leíras" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E1C95C9D-D58B-490A-9869-32CF3338C0C2}" name="Megfelelt" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{64064532-1755-4AF4-9684-1FF3388642E3}" name="Hibaüzenet" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{6867F903-3EEF-496C-AC0E-1C03D0C70441}" name="Kritikussag" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{8738679A-2485-4D35-BDEE-99784AFCA742}" name="Megjegyzés" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{04B4F1AE-9117-407D-AFE4-AA72720839EB}" name="Sorszám" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{A132221A-7BCA-4D01-ACFD-CF5051E54E5F}" name="Teszt Leíras" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E1C95C9D-D58B-490A-9869-32CF3338C0C2}" name="Megfelelt" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{64064532-1755-4AF4-9684-1FF3388642E3}" name="Hibaüzenet" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{6867F903-3EEF-496C-AC0E-1C03D0C70441}" name="Kritikussag" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8738679A-2485-4D35-BDEE-99784AFCA742}" name="Megjegyzés" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3550401-28A4-478A-A6B8-B46647C57FA6}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -749,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -758,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -767,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -776,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -785,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -794,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -818,10 +827,10 @@
     </row>
     <row r="7" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -836,10 +845,10 @@
     </row>
     <row r="8" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -854,82 +863,82 @@
     </row>
     <row r="9" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -944,66 +953,64 @@
     </row>
     <row r="14" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1012,57 +1019,57 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
@@ -1070,16 +1077,14 @@
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -1088,14 +1093,72 @@
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="22" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C21">
+  <conditionalFormatting sqref="C1:C24">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Nem"</formula>
     </cfRule>
@@ -1103,7 +1166,7 @@
       <formula>"Igen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E21">
+  <conditionalFormatting sqref="E1:E24">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Közepes"</formula>
     </cfRule>

--- a/Tesztjegyzőkönyv.xlsx
+++ b/Tesztjegyzőkönyv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\imageviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB22C5-51BF-4269-9D87-4468A9B6069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D30E4-BBE7-4AB5-A7FB-D6F0FF202DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E00E9AD7-C1DF-49FD-8324-30FE0B4F9530}"/>
   </bookViews>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3550401-28A4-478A-A6B8-B46647C57FA6}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="6" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="7" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="8" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="9" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="10" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="11" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="12" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="13" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>30</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="14" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>31</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="15" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="16" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="17" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="18" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="19" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>22</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="20" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="21" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="22" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="23" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="24" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>14</v>

--- a/Tesztjegyzőkönyv.xlsx
+++ b/Tesztjegyzőkönyv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\imageviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D30E4-BBE7-4AB5-A7FB-D6F0FF202DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061530C6-A757-48D3-9A04-3A95A388719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E00E9AD7-C1DF-49FD-8324-30FE0B4F9530}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>Megfelelt</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Többszöri  művelet esetén nem megfelelő működés</t>
   </si>
   <si>
-    <t>A ez elözö állapotokra valo viszalépés még nincs implenetálva</t>
-  </si>
-  <si>
     <t>Forgatás Balra 90°-al a dedikált gommbbal</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Művelet menü Delete gomb </t>
-  </si>
-  <si>
-    <t>A file</t>
   </si>
   <si>
     <t>Program bezárása</t>
@@ -216,6 +210,114 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -264,114 +366,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,15 +381,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}" name="Table2" displayName="Table2" ref="A1:F24" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}" name="Table2" displayName="Table2" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F24" xr:uid="{AA27AD5B-1609-4AEC-9979-B6F1762401DE}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{04B4F1AE-9117-407D-AFE4-AA72720839EB}" name="Sorszám" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{A132221A-7BCA-4D01-ACFD-CF5051E54E5F}" name="Teszt Leíras" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E1C95C9D-D58B-490A-9869-32CF3338C0C2}" name="Megfelelt" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{64064532-1755-4AF4-9684-1FF3388642E3}" name="Hibaüzenet" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6867F903-3EEF-496C-AC0E-1C03D0C70441}" name="Kritikussag" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{8738679A-2485-4D35-BDEE-99784AFCA742}" name="Megjegyzés" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{04B4F1AE-9117-407D-AFE4-AA72720839EB}" name="Sorszám" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A132221A-7BCA-4D01-ACFD-CF5051E54E5F}" name="Teszt Leíras" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E1C95C9D-D58B-490A-9869-32CF3338C0C2}" name="Megfelelt" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{64064532-1755-4AF4-9684-1FF3388642E3}" name="Hibaüzenet" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6867F903-3EEF-496C-AC0E-1C03D0C70441}" name="Kritikussag" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8738679A-2485-4D35-BDEE-99784AFCA742}" name="Megjegyzés" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -700,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3550401-28A4-478A-A6B8-B46647C57FA6}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -758,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -776,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -794,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -866,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -884,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -920,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -938,7 +932,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
@@ -956,7 +950,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
@@ -974,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
@@ -992,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1021,9 +1015,7 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -1084,10 +1076,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -1095,9 +1087,7 @@
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1125,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -1133,9 +1123,7 @@
       <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1159,21 +1147,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C24">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Nem"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Igen"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E24">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Közepes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
   </conditionalFormatting>
